--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/PurchaseVoucher.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/PurchaseVoucher.xlsx
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases Login&amp;Menu" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCases Document1" sheetId="3" r:id="rId3"/>
-    <sheet name="TestCases Document2" sheetId="4" r:id="rId4"/>
-    <sheet name="TestCases Document3" sheetId="5" r:id="rId5"/>
-    <sheet name="TestCases Document4" sheetId="8" r:id="rId6"/>
-    <sheet name="TestCases Document5" sheetId="9" r:id="rId7"/>
-    <sheet name="TestCases VoucherClose" sheetId="7" r:id="rId8"/>
+    <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases Login&amp;Menu" r:id="rId2" sheetId="2"/>
+    <sheet name="TestCases Document1" r:id="rId3" sheetId="3"/>
+    <sheet name="TestCases Document2" r:id="rId4" sheetId="4"/>
+    <sheet name="TestCases Document3" r:id="rId5" sheetId="5"/>
+    <sheet name="TestCases Document4" r:id="rId6" sheetId="8"/>
+    <sheet name="TestCases Document5" r:id="rId7" sheetId="9"/>
+    <sheet name="TestCases VoucherClose" r:id="rId8" sheetId="7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="199">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -654,11 +654,24 @@
     <t>Controls marked with arrow mark, require Values
 Main -&gt; PurchaseAC</t>
   </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Adjusted amount is not equal to total amount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="988">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,51 +774,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -836,6 +814,4841 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -870,108 +5683,588 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="537">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="357" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="359" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="361" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="363" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="365" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="367" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="369" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="371" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="373" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="375" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="377" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="379" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="381" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="383" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="385" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="387" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="389" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="391" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="393" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="395" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="397" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="659" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="661" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="663" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="665" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="667" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="669" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="671" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="679" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="681" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="683" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="685" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="687" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="689" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="691" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="693" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="695" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="697" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="699" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="701" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="703" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="705" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="707" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="709" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="711" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="713" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="715" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="717" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="719" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="721" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="723" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="753" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="755" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="757" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="759" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="761" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="763" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="765" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="773" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="775" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="777" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="779" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="781" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="783" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="785" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="787" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="803" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="805" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="807" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="823" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="825" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="827" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="829" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="831" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="833" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="835" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="837" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="839" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="841" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="843" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="845" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="847" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="849" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="851" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="853" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="855" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="857" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="859" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="861" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="863" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="865" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="867" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="869" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="871" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="873" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="875" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="877" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="879" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="881" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="883" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="885" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="887" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="889" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="891" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="893" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="895" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="897" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="899" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="901" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="903" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="905" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="907" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="909" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="911" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="913" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="915" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="917" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="919" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="921" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="923" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="925" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="927" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="929" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="931" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="933" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="935" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="937" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="939" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="941" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="943" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="945" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="947" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="949" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="951" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="953" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="955" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="957" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="959" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="961" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="963" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="965" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="967" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="969" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="971" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="973" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="975" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="977" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="979" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="981" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="983" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="985" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="987" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF273A99"/>
@@ -991,10 +6284,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1152,7 +6445,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1161,13 +6454,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1177,7 +6470,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1186,7 +6479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1195,7 +6488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1205,12 +6498,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1241,7 +6534,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1260,7 +6553,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1272,8 +6565,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1281,10 +6574,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="91" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="91.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,8 +6632,8 @@
       <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>191</v>
+      <c r="D4" s="515" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +6646,7 @@
       <c r="C5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="518" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1405,7 +6698,7 @@
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="522" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1419,7 +6712,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="526" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1433,8 +6726,8 @@
       <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>192</v>
+      <c r="D11" s="529" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,7 +6740,7 @@
       <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="531" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1461,7 +6754,7 @@
       <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="534" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1475,7 +6768,7 @@
       <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" t="s" s="536">
         <v>191</v>
       </c>
     </row>
@@ -1484,40 +6777,40 @@
     <mergeCell ref="B6:B8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="'TestCases Login&amp;Menu'!A2" display="Company Creation"/>
-    <hyperlink ref="B3" location="'TestCases Login&amp;Menu'!A3:A4" display="Login &amp; Leftpanel Menu display"/>
-    <hyperlink ref="B4" location="'TestCases Login&amp;Menu'!A5:A6" display="Purchase Voucher Menu selection &amp; display of  its dashboard icons "/>
-    <hyperlink ref="B5" location="'TestCases Login&amp;Menu'!A7:A8" display="Purchase Voucher New click &amp; display of its dashboard icons"/>
-    <hyperlink ref="B6:B8" location="'TestCases Login&amp;Menu'!A9:A11" display="Getting of all Header, Body &amp; Footer label names of Purchase Voucher"/>
-    <hyperlink ref="B9" location="'TestCases Document1'!A2:A8" display="Purchase Voucher creation with valid data by providing Save Method as &quot;Pick&quot;"/>
-    <hyperlink ref="B10" location="'TestCases Document2'!A2:A8" display="Purchase Voucher creation with valid data by providing Save Method as &quot;New Reference&quot;"/>
-    <hyperlink ref="B11" location="'TestCases Document3'!A2:A8" display="Purchase Voucher validation by missing mandatory fields of the Header"/>
-    <hyperlink ref="B12" location="'TestCases Document4'!A2:A8" display="Purchase Voucher validation by missing mandatory fields of the Body grid"/>
-    <hyperlink ref="B13" location="'TestCases Document5'!A2:A8" display="Purchase Voucher validation that VAT settings to be enabled, if selected &quot;Raise Receipt&quot; "/>
-    <hyperlink ref="B14" location="'TestCases VoucherClose'!A2" display="Purchase Voucher Home Page Close"/>
+    <hyperlink display="Company Creation" location="'TestCases Login&amp;Menu'!A2" ref="B2"/>
+    <hyperlink display="Login &amp; Leftpanel Menu display" location="'TestCases Login&amp;Menu'!A3:A4" ref="B3"/>
+    <hyperlink display="Purchase Voucher Menu selection &amp; display of  its dashboard icons " location="'TestCases Login&amp;Menu'!A5:A6" ref="B4"/>
+    <hyperlink display="Purchase Voucher New click &amp; display of its dashboard icons" location="'TestCases Login&amp;Menu'!A7:A8" ref="B5"/>
+    <hyperlink display="Getting of all Header, Body &amp; Footer label names of Purchase Voucher" location="'TestCases Login&amp;Menu'!A9:A11" ref="B6:B8"/>
+    <hyperlink display="Purchase Voucher creation with valid data by providing Save Method as &quot;Pick&quot;" location="'TestCases Document1'!A2:A8" ref="B9"/>
+    <hyperlink display="Purchase Voucher creation with valid data by providing Save Method as &quot;New Reference&quot;" location="'TestCases Document2'!A2:A8" ref="B10"/>
+    <hyperlink display="Purchase Voucher validation by missing mandatory fields of the Header" location="'TestCases Document3'!A2:A8" ref="B11"/>
+    <hyperlink display="Purchase Voucher validation by missing mandatory fields of the Body grid" location="'TestCases Document4'!A2:A8" ref="B12"/>
+    <hyperlink display="Purchase Voucher validation that VAT settings to be enabled, if selected &quot;Raise Receipt&quot; " location="'TestCases Document5'!A2:A8" ref="B13"/>
+    <hyperlink display="Purchase Voucher Home Page Close" location="'TestCases VoucherClose'!A2" ref="B14"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:J11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="26.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,12 +6886,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
@@ -1622,7 +6915,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
@@ -1632,8 +6925,8 @@
       <c r="C5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>191</v>
+      <c r="D5" s="513" t="s">
+        <v>192</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>62</v>
@@ -1654,7 +6947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -1664,7 +6957,7 @@
       <c r="C6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="514" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1678,7 +6971,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -1688,7 +6981,7 @@
       <c r="C7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="516" t="s">
         <v>191</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1700,7 +6993,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -1710,7 +7003,7 @@
       <c r="C8" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="517" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1805,32 +7098,32 @@
       <c r="J11" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1865,7 +7158,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -1875,7 +7168,7 @@
       <c r="C2" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="521" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -1939,7 +7232,7 @@
       <c r="C4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="519" t="s">
         <v>191</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -1999,7 +7292,7 @@
       <c r="C6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="520" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2041,7 +7334,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -2061,7 +7354,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -2097,7 +7390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>134</v>
@@ -2195,7 +7488,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -2227,7 +7520,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>135</v>
@@ -2276,14 +7569,14 @@
       <c r="L17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L18"/>
@@ -2291,16 +7584,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="27" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2335,7 +7628,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -2345,7 +7638,7 @@
       <c r="C2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="525" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2409,7 +7702,7 @@
       <c r="C4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="523" t="s">
         <v>191</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -2431,7 +7724,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +7752,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -2469,7 +7762,7 @@
       <c r="C6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="524" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2487,7 +7780,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +7804,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
@@ -2567,7 +7860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>134</v>
@@ -2697,7 +7990,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>135</v>
@@ -2725,7 +8018,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="13"/>
       <c r="C17" s="25"/>
@@ -2747,7 +8040,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="13"/>
       <c r="C18" s="25"/>
@@ -2768,31 +8061,31 @@
       <c r="L18" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2827,7 +8120,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -2837,8 +8130,8 @@
       <c r="C2" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>192</v>
+      <c r="D2" s="528" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -2857,7 +8150,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +8184,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
@@ -2901,7 +8194,7 @@
       <c r="C4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="527" t="s">
         <v>191</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -2951,7 +8244,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>104</v>
       </c>
@@ -2995,7 +8288,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>105</v>
       </c>
@@ -3051,7 +8344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>134</v>
@@ -3179,7 +8472,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>135</v>
@@ -3208,13 +8501,13 @@
       <c r="L16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L16"/>
@@ -3222,16 +8515,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,7 +8569,7 @@
       <c r="C2" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="530" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -3426,7 +8719,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>108</v>
       </c>
@@ -3482,7 +8775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>134</v>
@@ -3610,7 +8903,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>135</v>
@@ -3631,13 +8924,13 @@
       <c r="L16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:L16"/>
@@ -3645,16 +8938,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3689,7 +8982,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -3699,7 +8992,7 @@
       <c r="C2" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="533" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -3763,7 +9056,7 @@
       <c r="C4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="532" t="s">
         <v>191</v>
       </c>
       <c r="E4" s="22" t="s">
@@ -3857,7 +9150,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
@@ -3913,7 +9206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
         <v>134</v>
@@ -4043,7 +9336,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
         <v>135</v>
@@ -4070,13 +9363,13 @@
       <c r="L16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
@@ -4084,11 +9377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="82.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4118,7 +9411,7 @@
       <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="535" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -4126,6 +9419,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>